--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_0.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_26_0.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9988682542800789</v>
+        <v>0.9991556258674272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9979230830822622</v>
+        <v>0.9987911194819743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9971478623025858</v>
+        <v>0.9990014638150446</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9990297747772913</v>
+        <v>0.9988709038297362</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9981913673677572</v>
+        <v>0.9990663531262099</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001056434951650751</v>
+        <v>0.000788186189015933</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00193871077659202</v>
+        <v>0.001128436899855118</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004519652424034687</v>
+        <v>0.0005096512044163871</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006381386789572828</v>
+        <v>0.00144483151937592</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002578895551495985</v>
+        <v>0.0009772378186320956</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003479884797759405</v>
+        <v>0.003190399464107394</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03250284528546311</v>
+        <v>0.02807465385389343</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00129342367991</v>
+        <v>1.000964999008655</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03388655869943048</v>
+        <v>0.02926984999099892</v>
       </c>
       <c r="P2" t="n">
-        <v>103.7057105849339</v>
+        <v>104.2915524310783</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.5551227040029</v>
+        <v>159.1409645501473</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9987193434918814</v>
+        <v>0.9989719370698809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9977874433753906</v>
+        <v>0.9986437791421285</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9968604587230629</v>
+        <v>0.9987741402990628</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9989192245649131</v>
+        <v>0.99866956889423</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9980061595391705</v>
+        <v>0.9988878494642051</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001195436636004914</v>
+        <v>0.0009596516185190707</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002065324489061619</v>
+        <v>0.001265972639607611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004975087758045407</v>
+        <v>0.0006256767480650529</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0007108500091043684</v>
+        <v>0.001702466846137345</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002842979941398881</v>
+        <v>0.001164075620131249</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00375046455853032</v>
+        <v>0.00353865866360658</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03457508692693214</v>
+        <v>0.03097824427754211</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00146360743785</v>
+        <v>1.001174929062993</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03604701995770841</v>
+        <v>0.03229705227024311</v>
       </c>
       <c r="P3" t="n">
-        <v>103.4584875491152</v>
+        <v>103.8978804734831</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3078996681843</v>
+        <v>158.7472925925521</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9985402405726808</v>
+        <v>0.9987438288568795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9976230157503279</v>
+        <v>0.998456052451281</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9965227220100726</v>
+        <v>0.9984879409755723</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9987855581967876</v>
+        <v>0.9984174392589128</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9977876746082873</v>
+        <v>0.9986639479916983</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001362621349369175</v>
+        <v>0.001172580622562505</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002218810459519195</v>
+        <v>0.001441207265264415</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005510283711219699</v>
+        <v>0.0007717524057304862</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000798765348326872</v>
+        <v>0.002025100872953548</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00315451353107259</v>
+        <v>0.001398430805933691</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004051897348892886</v>
+        <v>0.003925762797269648</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03691370137725523</v>
+        <v>0.03424296457029539</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001668296488365</v>
+        <v>1.001435624163566</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03848519406678104</v>
+        <v>0.03570075846476156</v>
       </c>
       <c r="P4" t="n">
-        <v>103.1966899432713</v>
+        <v>103.4970965975209</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0461020623403</v>
+        <v>158.3465087165899</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9983254240810948</v>
+        <v>0.9984607341581943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9974249473797707</v>
+        <v>0.9982178036300748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9961272686431065</v>
+        <v>0.9981284452542808</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9986254299983481</v>
+        <v>0.998102156846486</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9975309907441008</v>
+        <v>0.9983835761232278</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001563143114910541</v>
+        <v>0.001436837097364078</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002403698589237563</v>
+        <v>0.001663602081945847</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006136940611488378</v>
+        <v>0.000955238422661256</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0009040852210989235</v>
+        <v>0.002428547433996182</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003520514267590734</v>
+        <v>0.001691892928328719</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004386451961709501</v>
+        <v>0.004356027888844343</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03953660474687402</v>
+        <v>0.03790563411109327</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001913801050177</v>
+        <v>1.001759160962064</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04121975986300298</v>
+        <v>0.03951935543068239</v>
       </c>
       <c r="P5" t="n">
-        <v>102.9221133349847</v>
+        <v>103.0906220826295</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.7715254540537</v>
+        <v>157.9400342016985</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9980659934563307</v>
+        <v>0.9981095474938282</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9971835889296121</v>
+        <v>0.9979164399996939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9956593967331662</v>
+        <v>0.9976777391603213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9984318114144128</v>
+        <v>0.9977084955169524</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9972263511623163</v>
+        <v>0.9980330504589885</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00180531021543947</v>
+        <v>0.001764654433236915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002628996108049089</v>
+        <v>0.001944911802571911</v>
       </c>
       <c r="I6" t="n">
-        <v>0.006878355871283486</v>
+        <v>0.001185278061770056</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001031432464277304</v>
+        <v>0.002932290438222865</v>
       </c>
       <c r="K6" t="n">
-        <v>0.003954894167780395</v>
+        <v>0.002058784249996461</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004759006597285113</v>
+        <v>0.004834306312640033</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04248894227254275</v>
+        <v>0.04200779014941056</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002210293192765</v>
+        <v>1.002160517149911</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04429778450932063</v>
+        <v>0.04379614874418451</v>
       </c>
       <c r="P6" t="n">
-        <v>102.6340456749098</v>
+        <v>102.6796007926006</v>
       </c>
       <c r="Q6" t="n">
-        <v>157.4834577939788</v>
+        <v>157.5290129116696</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.997751477367107</v>
+        <v>0.9976740872644132</v>
       </c>
       <c r="C7" t="n">
-        <v>0.996888504110598</v>
+        <v>0.9975362986404427</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9951035927959855</v>
+        <v>0.997113480631768</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9981948298574802</v>
+        <v>0.9972174529737092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9968628478601304</v>
+        <v>0.9975953053661474</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002098897179069078</v>
+        <v>0.002171137442900894</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002904444833872276</v>
+        <v>0.002299757075155811</v>
       </c>
       <c r="I7" t="n">
-        <v>0.007759113001012632</v>
+        <v>0.001473274674223623</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001187300497944782</v>
+        <v>0.003560645898561078</v>
       </c>
       <c r="K7" t="n">
-        <v>0.004473206749478707</v>
+        <v>0.002516967179382239</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005178389271160148</v>
+        <v>0.005384820620221926</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04581372260654092</v>
+        <v>0.04659546590496649</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002569740151878</v>
+        <v>1.002658185983528</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04776410762538119</v>
+        <v>0.04857913135445246</v>
       </c>
       <c r="P7" t="n">
-        <v>102.3326864500361</v>
+        <v>102.265008163044</v>
       </c>
       <c r="Q7" t="n">
-        <v>157.1820985691051</v>
+        <v>157.114420282113</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9973714971809629</v>
+        <v>0.9971343554825597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9965307233347683</v>
+        <v>0.9970579221181674</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9944470460219608</v>
+        <v>0.996408111679319</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9979090790017657</v>
+        <v>0.9966056892964933</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9964321162344584</v>
+        <v>0.9970493769695306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002453592003632132</v>
+        <v>0.002674953369774073</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003238417483348268</v>
+        <v>0.002746300560397296</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008799512705908768</v>
+        <v>0.001833293811827128</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00137524518265151</v>
+        <v>0.004343480405071196</v>
       </c>
       <c r="K8" t="n">
-        <v>0.005087378944280138</v>
+        <v>0.003088384371916077</v>
       </c>
       <c r="L8" t="n">
-        <v>0.005644780693270774</v>
+        <v>0.006000696839371997</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04953374610941648</v>
+        <v>0.05171995137056949</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003004003221757</v>
+        <v>1.003275022305646</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05164250023028442</v>
+        <v>0.05392177677547349</v>
       </c>
       <c r="P8" t="n">
-        <v>102.0204044084088</v>
+        <v>101.8476466612925</v>
       </c>
       <c r="Q8" t="n">
-        <v>156.8698165274778</v>
+        <v>156.6970587803615</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9969130827752919</v>
+        <v>0.9964655432652109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9960964615608293</v>
+        <v>0.9964571558780917</v>
       </c>
       <c r="D9" t="n">
-        <v>0.993672320530487</v>
+        <v>0.9955271198276704</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997565423952867</v>
+        <v>0.9958440173090946</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9959223530147902</v>
+        <v>0.9963689815122007</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002881501729259195</v>
+        <v>0.003299260217205795</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00364378178743156</v>
+        <v>0.003307089474917735</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01002718483011052</v>
+        <v>0.002282950584449476</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001601274741344082</v>
+        <v>0.005318142903981548</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00581424081555384</v>
+        <v>0.003800546744215512</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006161691459684241</v>
+        <v>0.006685262457972903</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05367962117283611</v>
+        <v>0.05743918712173593</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003527905399666</v>
+        <v>1.004039379125473</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05596487377829832</v>
+        <v>0.05988449223301721</v>
       </c>
       <c r="P9" t="n">
-        <v>101.6988873739262</v>
+        <v>101.4281140244907</v>
       </c>
       <c r="Q9" t="n">
-        <v>156.5482994929952</v>
+        <v>156.2775261435597</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9963584342692487</v>
+        <v>0.9956370762496117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9955690140834637</v>
+        <v>0.9957040909987015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9927561840885289</v>
+        <v>0.9944279533257876</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9971503453568329</v>
+        <v>0.9948965865789881</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9953175487085594</v>
+        <v>0.9955218318565106</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00339924176339486</v>
+        <v>0.00407259781076852</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004136130855283946</v>
+        <v>0.004010042484100701</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01147894443288023</v>
+        <v>0.002843963334892482</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001874281153398722</v>
+        <v>0.00653050888071096</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006676620000280777</v>
+        <v>0.004687248884844716</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006735385217191525</v>
+        <v>0.00744616397538595</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05830301676066908</v>
+        <v>0.06381690850212442</v>
       </c>
       <c r="N10" t="n">
-        <v>1.004161789406573</v>
+        <v>1.004986198571872</v>
       </c>
       <c r="O10" t="n">
-        <v>0.06078509688805361</v>
+        <v>0.06653372641627213</v>
       </c>
       <c r="P10" t="n">
-        <v>101.3684057659937</v>
+        <v>101.0069484007986</v>
       </c>
       <c r="Q10" t="n">
-        <v>156.2178178850627</v>
+        <v>155.8563605198677</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.995684488746883</v>
+        <v>0.994611318324939</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9949244535446411</v>
+        <v>0.9947618225026519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9916635029780781</v>
+        <v>0.9930577364444705</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9966473325659864</v>
+        <v>0.9937189831546154</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9945943853382408</v>
+        <v>0.9944679208125877</v>
       </c>
       <c r="G11" t="n">
-        <v>0.004028340325733919</v>
+        <v>0.005030097807881422</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004737799825337076</v>
+        <v>0.004889608764356321</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01321046631347626</v>
+        <v>0.00354331974720531</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002205123838515931</v>
+        <v>0.00803741200346369</v>
       </c>
       <c r="K11" t="n">
-        <v>0.007707765167890984</v>
+        <v>0.0057903658753345</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007373396108048006</v>
+        <v>0.008291720287293964</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06346920769738597</v>
+        <v>0.07092318244327042</v>
       </c>
       <c r="N11" t="n">
-        <v>1.004932012860705</v>
+        <v>1.006158493342927</v>
       </c>
       <c r="O11" t="n">
-        <v>0.06617122326843608</v>
+        <v>0.07394252915110772</v>
       </c>
       <c r="P11" t="n">
-        <v>101.0288016353829</v>
+        <v>100.5846317003054</v>
       </c>
       <c r="Q11" t="n">
-        <v>155.8782137544519</v>
+        <v>155.4340438193744</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9948629899228505</v>
+        <v>0.9933417135838327</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9941355903681968</v>
+        <v>0.9935843146327179</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9903567681225921</v>
+        <v>0.9913506546961091</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9960365017331408</v>
+        <v>0.9922563271942259</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9937273515486637</v>
+        <v>0.9931576183233414</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004795173418337407</v>
+        <v>0.006215218104496887</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005474168973456435</v>
+        <v>0.005988760674317816</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01528118939340424</v>
+        <v>0.004414611426162784</v>
       </c>
       <c r="J12" t="n">
-        <v>0.002606880844636809</v>
+        <v>0.009909078464860138</v>
       </c>
       <c r="K12" t="n">
-        <v>0.008944052484107632</v>
+        <v>0.007161844945511461</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008083841720503767</v>
+        <v>0.009231269774327047</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06924719068913487</v>
+        <v>0.0788366545744864</v>
       </c>
       <c r="N12" t="n">
-        <v>1.005870868659599</v>
+        <v>1.007609470189905</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0721951869582174</v>
+        <v>0.08219289417409517</v>
       </c>
       <c r="P12" t="n">
-        <v>100.680290809614</v>
+        <v>100.1615089227871</v>
       </c>
       <c r="Q12" t="n">
-        <v>155.529702928683</v>
+        <v>155.0109210418561</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9938663774480079</v>
+        <v>0.9917721514736457</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9931759724457324</v>
+        <v>0.9921165797418244</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9888050795340108</v>
+        <v>0.9892270899652307</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9953003749199701</v>
+        <v>0.990442943130617</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9926953504318762</v>
+        <v>0.9915313324766293</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005725467417371369</v>
+        <v>0.007680335438542383</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006369930181718339</v>
+        <v>0.007358826768851232</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01774007947332101</v>
+        <v>0.00549847532519282</v>
       </c>
       <c r="J13" t="n">
-        <v>0.003091047800006483</v>
+        <v>0.012229549050837</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01041556363666375</v>
+        <v>0.008864060288301275</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008870682641336116</v>
+        <v>0.01027447340446324</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07566681846999627</v>
+        <v>0.08763752300551621</v>
       </c>
       <c r="N13" t="n">
-        <v>1.007009854345134</v>
+        <v>1.009403255458691</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07888811158417158</v>
+        <v>0.09136843379454311</v>
       </c>
       <c r="P13" t="n">
-        <v>100.3256621758378</v>
+        <v>99.73818411176565</v>
       </c>
       <c r="Q13" t="n">
-        <v>155.1750742949068</v>
+        <v>154.5875962308347</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9926501352560739</v>
+        <v>0.9898341584016026</v>
       </c>
       <c r="C14" t="n">
-        <v>0.992000474477737</v>
+        <v>0.9902903899158518</v>
       </c>
       <c r="D14" t="n">
-        <v>0.986937078830025</v>
+        <v>0.986587642726433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9944081797526229</v>
+        <v>0.9881982797742587</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9914515897097086</v>
+        <v>0.9895156965399231</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006860776116679611</v>
+        <v>0.009489366903230536</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00746720593644483</v>
+        <v>0.009063494810927799</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02070021492453765</v>
+        <v>0.006845644796379056</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003677864378402097</v>
+        <v>0.01510189992144272</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01218901886264066</v>
+        <v>0.01097380404821673</v>
       </c>
       <c r="L14" t="n">
-        <v>0.009744955245898546</v>
+        <v>0.01143161912632515</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08282980210455419</v>
+        <v>0.09741338154088758</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00839984542163</v>
+        <v>1.011618104683883</v>
       </c>
       <c r="O14" t="n">
-        <v>0.08635603826147288</v>
+        <v>0.1015604708665822</v>
       </c>
       <c r="P14" t="n">
-        <v>99.96386941420316</v>
+        <v>99.31516676114799</v>
       </c>
       <c r="Q14" t="n">
-        <v>154.8132815332722</v>
+        <v>154.164578880217</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9911662138597241</v>
+        <v>0.9874477075405919</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9905625699078919</v>
+        <v>0.988026573627197</v>
       </c>
       <c r="D15" t="n">
-        <v>0.984695527552792</v>
+        <v>0.9833146419707068</v>
       </c>
       <c r="E15" t="n">
-        <v>0.993329203745615</v>
+        <v>0.9854306538313814</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9899571483815972</v>
+        <v>0.9870259294725217</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008245951603550988</v>
+        <v>0.01171701402889799</v>
       </c>
       <c r="H15" t="n">
-        <v>0.008809426735679166</v>
+        <v>0.01117666794633661</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02425229891856409</v>
+        <v>0.008516178926582883</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004387530863691254</v>
+        <v>0.01864345227227348</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01431991489112767</v>
+        <v>0.01357981559942818</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01071556161183768</v>
+        <v>0.01271250482569252</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09080722219928869</v>
+        <v>0.1082451570690254</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010095755588887</v>
+        <v>1.014345477096466</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09467307364517637</v>
+        <v>0.1128533775038193</v>
       </c>
       <c r="P15" t="n">
-        <v>99.59606582759302</v>
+        <v>98.89342660597082</v>
       </c>
       <c r="Q15" t="n">
-        <v>154.445477946662</v>
+        <v>153.7428387250399</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9893518740182992</v>
+        <v>0.984528093976265</v>
       </c>
       <c r="C16" t="n">
-        <v>0.988798415994592</v>
+        <v>0.9852408079532035</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9819882939478687</v>
+        <v>0.9792794632851052</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9920091324113939</v>
+        <v>0.9820465592145544</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9881483485034749</v>
+        <v>0.9839734675529587</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0099395582052065</v>
+        <v>0.01444234513497331</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01045618697633777</v>
+        <v>0.01377705792202914</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02854232844133665</v>
+        <v>0.01057572740177814</v>
       </c>
       <c r="J16" t="n">
-        <v>0.005255771100733652</v>
+        <v>0.02297385981036628</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01689904891540522</v>
+        <v>0.01677479360607221</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01179389984240405</v>
+        <v>0.01412260985936962</v>
       </c>
       <c r="M16" t="n">
-        <v>0.09969733298943609</v>
+        <v>0.120176308542796</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01216928683623</v>
+        <v>1.01768217831284</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1039416548567267</v>
+        <v>0.1252924627967167</v>
       </c>
       <c r="P16" t="n">
-        <v>99.2224654109154</v>
+        <v>98.47518150646947</v>
       </c>
       <c r="Q16" t="n">
-        <v>154.0718775299844</v>
+        <v>153.3245936255385</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9871363042576184</v>
+        <v>0.9809880437116359</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9866376898845505</v>
+        <v>0.9818454900192971</v>
       </c>
       <c r="D17" t="n">
-        <v>0.978721254320257</v>
+        <v>0.9743423843234834</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9904012273139253</v>
+        <v>0.9779607553511828</v>
       </c>
       <c r="F17" t="n">
-        <v>0.985962092563629</v>
+        <v>0.9802721817866655</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01200769532452932</v>
+        <v>0.01774682666675703</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01247312995514689</v>
+        <v>0.0169464381760983</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03371945701606811</v>
+        <v>0.01309560427454433</v>
       </c>
       <c r="J17" t="n">
-        <v>0.006313325997031429</v>
+        <v>0.02820219939671732</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02001639050108059</v>
+        <v>0.02064888833066881</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01299050866729587</v>
+        <v>0.01566435696359372</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1095796300620207</v>
+        <v>0.1332172161049653</v>
       </c>
       <c r="N17" t="n">
-        <v>1.014701366562722</v>
+        <v>1.021727950043845</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1142446617748663</v>
+        <v>0.1388885487922077</v>
       </c>
       <c r="P17" t="n">
-        <v>98.84441511536058</v>
+        <v>98.06309711676255</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.6938272344296</v>
+        <v>152.9125092358316</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9844541202780132</v>
+        <v>0.9768069813301533</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9840197440125718</v>
+        <v>0.9778181022781671</v>
       </c>
       <c r="D18" t="n">
-        <v>0.974822465395057</v>
+        <v>0.9684404325143647</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9885191805324939</v>
+        <v>0.9731868641086923</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9833615734674899</v>
+        <v>0.9759149645839368</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01451139633522126</v>
+        <v>0.02164966487244363</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0149168675120964</v>
+        <v>0.02070582785055284</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03989768986666118</v>
+        <v>0.01610795064039891</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007551189967919968</v>
+        <v>0.03431104000646958</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02372442219809644</v>
+        <v>0.02520953920846344</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01430237625612777</v>
+        <v>0.01731413840783858</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1204632571999498</v>
+        <v>0.1471382508814198</v>
       </c>
       <c r="N18" t="n">
-        <v>1.017766719682271</v>
+        <v>1.026506307051253</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1255916274522711</v>
+        <v>0.1534022308396106</v>
       </c>
       <c r="P18" t="n">
-        <v>98.46564196820529</v>
+        <v>97.6655306079726</v>
       </c>
       <c r="Q18" t="n">
-        <v>153.3150540872743</v>
+        <v>152.5149427270416</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9811773193518764</v>
+        <v>0.971666158153945</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9808142652865687</v>
+        <v>0.9728563808341327</v>
       </c>
       <c r="D19" t="n">
-        <v>0.97010015053377</v>
+        <v>0.960960131964359</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9862315793074083</v>
+        <v>0.9675348158680082</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9802099042973224</v>
+        <v>0.9706362361779408</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01757014616483304</v>
+        <v>0.02644839765137682</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01790904119856612</v>
+        <v>0.02533737702415899</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04738092667855173</v>
+        <v>0.01992588357277147</v>
       </c>
       <c r="J19" t="n">
-        <v>0.009055796104298772</v>
+        <v>0.04154360146778956</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02821832851043202</v>
+        <v>0.03073472563326857</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01575602699664268</v>
+        <v>0.01915867200207729</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1325524279854317</v>
+        <v>0.1626296333740466</v>
       </c>
       <c r="N19" t="n">
-        <v>1.021511635026427</v>
+        <v>1.032381533538349</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1381954592661244</v>
+        <v>0.1695531135565311</v>
       </c>
       <c r="P19" t="n">
-        <v>98.08310811563513</v>
+        <v>97.26511940560221</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9325202347042</v>
+        <v>152.1145315246712</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9771787653564815</v>
+        <v>0.9651383479441479</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9768927486639417</v>
+        <v>0.966497772583546</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9643841516620644</v>
+        <v>0.9515355792645317</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9834458463762304</v>
+        <v>0.9605199519378806</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9763911480449337</v>
+        <v>0.9640503353709763</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02130262080329892</v>
+        <v>0.03254182194447065</v>
       </c>
       <c r="H20" t="n">
-        <v>0.021569604831103</v>
+        <v>0.03127285871543767</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05643880918531317</v>
+        <v>0.02473615956168533</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01088803452793672</v>
+        <v>0.0505200702375082</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03366342185662495</v>
+        <v>0.03762811489959676</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01736604916817781</v>
+        <v>0.02124944830792616</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1459541736412458</v>
+        <v>0.1803935196853552</v>
       </c>
       <c r="N20" t="n">
-        <v>1.026081411021164</v>
+        <v>1.039841888063831</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1521677449799445</v>
+        <v>0.1880732452844261</v>
       </c>
       <c r="P20" t="n">
-        <v>97.69785034285491</v>
+        <v>96.85045837568143</v>
       </c>
       <c r="Q20" t="n">
-        <v>152.5472624619239</v>
+        <v>151.6998704947505</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9722723115176887</v>
+        <v>0.9568827866062122</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9720684566181199</v>
+        <v>0.9584942552154</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9574105510897257</v>
+        <v>0.9397534925517</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9799625541378221</v>
+        <v>0.951775568308462</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9717127373206932</v>
+        <v>0.9558324634207677</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0258825800933796</v>
+        <v>0.0402480260761724</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02607286969393113</v>
+        <v>0.03874379086479242</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06748955570417667</v>
+        <v>0.03074971698124043</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01317907320165227</v>
+        <v>0.06170969377714667</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04033428048746431</v>
+        <v>0.04622967024548368</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01915965104566753</v>
+        <v>0.02365295193215263</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1608806392745243</v>
+        <v>0.2006191069568709</v>
       </c>
       <c r="N21" t="n">
-        <v>1.031688786836927</v>
+        <v>1.049276815307186</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1677296611572752</v>
+        <v>0.2091598776788277</v>
       </c>
       <c r="P21" t="n">
-        <v>97.30837023965887</v>
+        <v>96.42538863581184</v>
       </c>
       <c r="Q21" t="n">
-        <v>152.1577823587279</v>
+        <v>151.2748007548809</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9662279658599406</v>
+        <v>0.946169151011089</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9661193191531118</v>
+        <v>0.9480763025029542</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9488386625584713</v>
+        <v>0.9245898499381465</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9756056811828701</v>
+        <v>0.9404883114198045</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9659446695703455</v>
+        <v>0.9452356458849619</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03152471144877685</v>
+        <v>0.05024873462996908</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03162612838056232</v>
+        <v>0.04846849242658822</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08107303619811031</v>
+        <v>0.03848921489606281</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01604468531601832</v>
+        <v>0.07615326815949164</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04855886075706431</v>
+        <v>0.05732124152777721</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02116465195364963</v>
+        <v>0.02644804500416095</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1775519964651956</v>
+        <v>0.2241622952906422</v>
       </c>
       <c r="N22" t="n">
-        <v>1.038596610445782</v>
+        <v>1.061520970273041</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1851107525380204</v>
+        <v>0.2337053482810862</v>
       </c>
       <c r="P22" t="n">
-        <v>96.91396710052994</v>
+        <v>95.98153982770633</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.763379219599</v>
+        <v>150.8309519467753</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9588615507293059</v>
+        <v>0.9343157820566629</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9588617100682673</v>
+        <v>0.9364760326213999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9384367478158193</v>
+        <v>0.9085284829469544</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9702675885943457</v>
+        <v>0.9279781739171806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9589334166320894</v>
+        <v>0.9336724628030193</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0384009366249709</v>
+        <v>0.06131333424616247</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03840078788904464</v>
+        <v>0.05929683516802107</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09755647569819151</v>
+        <v>0.04668690983688268</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01955566737756699</v>
+        <v>0.09216168396281113</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05855607560907101</v>
+        <v>0.06942429689984692</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02337981972800529</v>
+        <v>0.02921813961750699</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1959615692552264</v>
+        <v>0.2476152948550684</v>
       </c>
       <c r="N23" t="n">
-        <v>1.047015370595079</v>
+        <v>1.075067677649528</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2043040589547921</v>
+        <v>0.2581567905913719</v>
       </c>
       <c r="P23" t="n">
-        <v>96.51934685682127</v>
+        <v>95.58351587057551</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.3687589758903</v>
+        <v>150.4329279896446</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9498403410904537</v>
+        <v>0.9218957350239828</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9499626502923572</v>
+        <v>0.924277552754169</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9257490149355145</v>
+        <v>0.8912354513427035</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9637182519670756</v>
+        <v>0.9129727338489725</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9503726176252976</v>
+        <v>0.9202836573878669</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04682183983750211</v>
+        <v>0.07290690297411315</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04670766956627871</v>
+        <v>0.07068358067269942</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1176621468654575</v>
+        <v>0.05551324434323861</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02386331154672626</v>
+        <v>0.1113631774614464</v>
       </c>
       <c r="K24" t="n">
-        <v>0.07076275931160343</v>
+        <v>0.08343821090234251</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02584139984477729</v>
+        <v>0.03184601503611997</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2163835479825167</v>
+        <v>0.2700127829827935</v>
       </c>
       <c r="N24" t="n">
-        <v>1.057325324468053</v>
+        <v>1.089262017115448</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2255954435958269</v>
+        <v>0.2815077861578864</v>
       </c>
       <c r="P24" t="n">
-        <v>96.12281104343491</v>
+        <v>95.23714390689503</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.9722231625039</v>
+        <v>150.0865560259641</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9386115170827243</v>
+        <v>0.9034782220469639</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9388569492661391</v>
+        <v>0.9059952716927449</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9099856771289063</v>
+        <v>0.8660659829255042</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9556422418782867</v>
+        <v>0.8893949037352064</v>
       </c>
       <c r="F25" t="n">
-        <v>0.939750712524649</v>
+        <v>0.8997343533926438</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05730345416030892</v>
+        <v>0.09009884290277523</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05707435399031902</v>
+        <v>0.08774928754414878</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1426415887742771</v>
+        <v>0.06835969907028336</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02917508276095735</v>
+        <v>0.1415342054075446</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08590833576761724</v>
+        <v>0.1049469392818205</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02861627713537455</v>
+        <v>0.03527159406367798</v>
       </c>
       <c r="M25" t="n">
-        <v>0.239381398943838</v>
+        <v>0.3001646929650042</v>
       </c>
       <c r="N25" t="n">
-        <v>1.070158266191172</v>
+        <v>1.110310603374898</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2495723606846862</v>
+        <v>0.312943325371098</v>
       </c>
       <c r="P25" t="n">
-        <v>95.71878875009702</v>
+        <v>94.81369591363369</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.568200869166</v>
+        <v>149.6631080327027</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9207581993937122</v>
+        <v>0.8473743078823917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9235441163145431</v>
+        <v>0.8523135055976381</v>
       </c>
       <c r="D26" t="n">
-        <v>0.879933858949429</v>
+        <v>0.8122737626378297</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9366770183836928</v>
+        <v>0.8809824554017497</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9186775730894973</v>
+        <v>0.8814766108716637</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07396874255292757</v>
+        <v>0.1424693840981943</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07136821139495128</v>
+        <v>0.1378588598367344</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1902633333361407</v>
+        <v>0.09581515864290638</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04164893149597677</v>
+        <v>0.1522990727655309</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1159561324160587</v>
+        <v>0.1240571157042186</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03003110357945623</v>
+        <v>0.04223327870388412</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2719719517761484</v>
+        <v>0.377451167832601</v>
       </c>
       <c r="N26" t="n">
-        <v>1.090562057835758</v>
+        <v>1.174429362420124</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2835503608228129</v>
+        <v>0.3935200454788669</v>
       </c>
       <c r="P26" t="n">
-        <v>95.20822534589303</v>
+        <v>93.89725630158077</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.0576374649621</v>
+        <v>148.7466684206498</v>
       </c>
     </row>
   </sheetData>
